--- a/sneakerpark-templates.xlsx
+++ b/sneakerpark-templates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teguh\w\dg\my-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C73F375-E583-4434-92A6-91CECA958C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E536F84-BEF2-456A-95CA-2165494842A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20700" yWindow="1545" windowWidth="19245" windowHeight="12960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="183">
   <si>
     <t>Entity</t>
   </si>
@@ -943,6 +943,18 @@
   </si>
   <si>
     <t>Number of rows having either phone or email / Number of all rows</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Current only</t>
   </si>
 </sst>
 </file>
@@ -1290,8 +1302,8 @@
   </sheetPr>
   <dimension ref="A1:M499"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H35" sqref="D35:H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1386,8 +1398,12 @@
       <c r="K2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+      <c r="L2" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
@@ -1423,8 +1439,12 @@
       <c r="K3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
+      <c r="L3" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -1460,8 +1480,12 @@
       <c r="K4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="L4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
@@ -1497,8 +1521,12 @@
       <c r="K5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
+      <c r="L5" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
@@ -1534,8 +1562,12 @@
       <c r="K6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+      <c r="L6" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
@@ -1571,8 +1603,12 @@
       <c r="K7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
+      <c r="L7" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
@@ -1649,8 +1685,12 @@
       <c r="K9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+      <c r="L9" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
@@ -1727,8 +1767,12 @@
       <c r="K11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
+      <c r="L11" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -1764,8 +1808,12 @@
       <c r="K12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="L12" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
@@ -1801,8 +1849,12 @@
       <c r="K13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+      <c r="L13" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
@@ -1838,8 +1890,12 @@
       <c r="K14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="L14" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
@@ -1875,8 +1931,12 @@
       <c r="K15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
+      <c r="L15" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="16" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
@@ -1912,8 +1972,12 @@
       <c r="K16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
+      <c r="L16" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="17" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
@@ -1949,8 +2013,12 @@
       <c r="K17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
+      <c r="L17" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="18" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
@@ -2068,8 +2136,12 @@
       <c r="K20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="L20" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="21" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
@@ -2105,8 +2177,12 @@
       <c r="K21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
+      <c r="L21" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="22" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
@@ -2142,8 +2218,12 @@
       <c r="K22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+      <c r="L22" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="23" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
@@ -2261,8 +2341,12 @@
       <c r="K25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
+      <c r="L25" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="26" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
@@ -2339,8 +2423,12 @@
       <c r="K27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
+      <c r="L27" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="28" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
@@ -2376,8 +2464,12 @@
       <c r="K28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
+      <c r="L28" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="29" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
@@ -2413,8 +2505,12 @@
       <c r="K29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
+      <c r="L29" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="30" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
@@ -2450,8 +2546,12 @@
       <c r="K30" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
+      <c r="L30" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="31" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
@@ -2487,8 +2587,12 @@
       <c r="K31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
+      <c r="L31" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="32" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
@@ -2524,8 +2628,12 @@
       <c r="K32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
+      <c r="L32" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="33" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
@@ -2561,8 +2669,12 @@
       <c r="K33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
+      <c r="L33" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="34" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
@@ -2598,8 +2710,12 @@
       <c r="K34" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
+      <c r="L34" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="35" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
@@ -2635,8 +2751,12 @@
       <c r="K35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
+      <c r="L35" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="36" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
@@ -2672,8 +2792,12 @@
       <c r="K36" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
+      <c r="L36" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="37" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
@@ -2709,8 +2833,12 @@
       <c r="K37" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
+      <c r="L37" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="38" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
@@ -2746,8 +2874,12 @@
       <c r="K38" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
+      <c r="L38" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="39" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
@@ -2783,8 +2915,12 @@
       <c r="K39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
+      <c r="L39" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="40" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
@@ -9699,13 +9835,13 @@
   </sheetPr>
   <dimension ref="A1:F499"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="24.90625" style="9" customWidth="1"/>
     <col min="2" max="2" width="22.08984375" style="9" customWidth="1"/>
     <col min="3" max="4" width="19.08984375" style="9" customWidth="1"/>
     <col min="5" max="5" width="25.08984375" style="9" customWidth="1"/>
@@ -9853,20 +9989,44 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="A8" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -14033,7 +14193,7 @@
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>

--- a/sneakerpark-templates.xlsx
+++ b/sneakerpark-templates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teguh\w\dg\my-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E536F84-BEF2-456A-95CA-2165494842A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069A1BC5-EDBF-4AB1-B967-3F792A6D9233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20700" yWindow="1545" windowWidth="19245" windowHeight="12960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="229">
   <si>
     <t>Entity</t>
   </si>
@@ -549,9 +549,6 @@
     <t>UserID</t>
   </si>
   <si>
-    <t>VARCHAR(50)</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -561,9 +558,6 @@
     <t>ZipCode</t>
   </si>
   <si>
-    <t>VARCHAR(10)</t>
-  </si>
-  <si>
     <t>creditcards</t>
   </si>
   <si>
@@ -597,33 +591,21 @@
     <t>Color</t>
   </si>
   <si>
-    <t>VARCHAR(15)</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
-    <t>CHAR(1)</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
     <t>Size</t>
   </si>
   <si>
-    <t>VARCHAR(4)</t>
-  </si>
-  <si>
     <t>ListingPrice</t>
   </si>
   <si>
     <t>ListingType</t>
   </si>
   <si>
-    <t>VARCHAR(20)</t>
-  </si>
-  <si>
     <t>Auction</t>
   </si>
   <si>
@@ -654,9 +636,6 @@
     <t>ShippingAddress</t>
   </si>
   <si>
-    <t>VARCHAR(100)</t>
-  </si>
-  <si>
     <t>OrderDate</t>
   </si>
   <si>
@@ -675,9 +654,6 @@
     <t>TrackingNumber</t>
   </si>
   <si>
-    <t>VARCHAR(30)</t>
-  </si>
-  <si>
     <t>OrderShipDate</t>
   </si>
   <si>
@@ -774,93 +750,6 @@
     <t>approved</t>
   </si>
   <si>
-    <t>Unique identifier for the user</t>
-  </si>
-  <si>
-    <t>User's email address</t>
-  </si>
-  <si>
-    <t>User's physical address</t>
-  </si>
-  <si>
-    <t>User's postal code</t>
-  </si>
-  <si>
-    <t>Unique identifier for the credit card</t>
-  </si>
-  <si>
-    <t>Expiration date of the credit card</t>
-  </si>
-  <si>
-    <t>Unique identifier for the listing</t>
-  </si>
-  <si>
-    <t>Unique identifier for the seller</t>
-  </si>
-  <si>
-    <t>Unique identifier for the product</t>
-  </si>
-  <si>
-    <t>Gender category of the item</t>
-  </si>
-  <si>
-    <t>Size of the item</t>
-  </si>
-  <si>
-    <t>Price at which the item is listed</t>
-  </si>
-  <si>
-    <t>Type of listing (e.g., Auction, Fixed)</t>
-  </si>
-  <si>
-    <t>Date the listing was created</t>
-  </si>
-  <si>
-    <t>Unique identifier for the order</t>
-  </si>
-  <si>
-    <t>Unique identifier for the buyer</t>
-  </si>
-  <si>
-    <t>Tax rate percentage applicable to the order</t>
-  </si>
-  <si>
-    <t>Shipping address for the order</t>
-  </si>
-  <si>
-    <t>Date the order was placed</t>
-  </si>
-  <si>
-    <t>Unique identifier for the shipment</t>
-  </si>
-  <si>
-    <t>Tracking number for the shipment</t>
-  </si>
-  <si>
-    <t>Date the order was shipped</t>
-  </si>
-  <si>
-    <t>Unique identifier for the item</t>
-  </si>
-  <si>
-    <t>Name of the item</t>
-  </si>
-  <si>
-    <t>Brand name of the item</t>
-  </si>
-  <si>
-    <t>Color of the item</t>
-  </si>
-  <si>
-    <t>Sex category of the item</t>
-  </si>
-  <si>
-    <t>Current status of the item</t>
-  </si>
-  <si>
-    <t>Unique identifier</t>
-  </si>
-  <si>
     <t>op.Orders</t>
   </si>
   <si>
@@ -882,9 +771,6 @@
     <t>Customerservicerequest</t>
   </si>
   <si>
-    <t>DECIMAL(8)</t>
-  </si>
-  <si>
     <t>Replace "PIace" with "Place".</t>
   </si>
   <si>
@@ -955,6 +841,258 @@
   </si>
   <si>
     <t>Current only</t>
+  </si>
+  <si>
+    <t>Description for UserID</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+  </si>
+  <si>
+    <t>Description for FirstName</t>
+  </si>
+  <si>
+    <t>Alvaro</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Description for LastName</t>
+  </si>
+  <si>
+    <t>Agudelo</t>
+  </si>
+  <si>
+    <t>Description for Email</t>
+  </si>
+  <si>
+    <t>Description for Address</t>
+  </si>
+  <si>
+    <t>Description for ZipCode</t>
+  </si>
+  <si>
+    <t>Description for CreditCardID</t>
+  </si>
+  <si>
+    <t>CreditCardNumber</t>
+  </si>
+  <si>
+    <t>Description for CreditCardNumber</t>
+  </si>
+  <si>
+    <t>Description for CreditCardExpirationDate</t>
+  </si>
+  <si>
+    <t>Description for ListingID</t>
+  </si>
+  <si>
+    <t>Description for SellerID</t>
+  </si>
+  <si>
+    <t>Description for ProductID</t>
+  </si>
+  <si>
+    <t>ShoeType</t>
+  </si>
+  <si>
+    <t>Description for ShoeType</t>
+  </si>
+  <si>
+    <t>Sandals or Flip Flops</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Description for Brand</t>
+  </si>
+  <si>
+    <t>Puma</t>
+  </si>
+  <si>
+    <t>Description for Color</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>CHAR</t>
+  </si>
+  <si>
+    <t>Description for Gender</t>
+  </si>
+  <si>
+    <t>Description for Size</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Description for Condition</t>
+  </si>
+  <si>
+    <t>Used</t>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+  </si>
+  <si>
+    <t>Description for ListingPrice</t>
+  </si>
+  <si>
+    <t>Description for ListingType</t>
+  </si>
+  <si>
+    <t>Description for ListingCreateDate</t>
+  </si>
+  <si>
+    <t>ListingEndDate</t>
+  </si>
+  <si>
+    <t>Description for ListingEndDate</t>
+  </si>
+  <si>
+    <t>Description for OrderID</t>
+  </si>
+  <si>
+    <t>Description for BuyerID</t>
+  </si>
+  <si>
+    <t>ShippingCost</t>
+  </si>
+  <si>
+    <t>Description for ShippingCost</t>
+  </si>
+  <si>
+    <t>Description for TaxRatePercent</t>
+  </si>
+  <si>
+    <t>TotalAmount</t>
+  </si>
+  <si>
+    <t>Description for TotalAmount</t>
+  </si>
+  <si>
+    <t>Description for ShippingAddress</t>
+  </si>
+  <si>
+    <t>ShippingZipCode</t>
+  </si>
+  <si>
+    <t>Description for ShippingZipCode</t>
+  </si>
+  <si>
+    <t>Description for OrderDate</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Description for Status</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>ListingSoldPrice</t>
+  </si>
+  <si>
+    <t>Description for ListingSoldPrice</t>
+  </si>
+  <si>
+    <t>Description for ShipmentID</t>
+  </si>
+  <si>
+    <t>Carrier</t>
+  </si>
+  <si>
+    <t>Description for Carrier</t>
+  </si>
+  <si>
+    <t>DHL</t>
+  </si>
+  <si>
+    <t>Description for TrackingNumber</t>
+  </si>
+  <si>
+    <t>Description for OrderShipDate</t>
+  </si>
+  <si>
+    <t>Description for ItemID</t>
+  </si>
+  <si>
+    <t>Description for ItemName</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Description for Type</t>
+  </si>
+  <si>
+    <t>Dress</t>
+  </si>
+  <si>
+    <t>Description for BrandName</t>
+  </si>
+  <si>
+    <t>Description for Sex</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>Description for ItemStatus</t>
+  </si>
+  <si>
+    <t>ArrivalDate</t>
+  </si>
+  <si>
+    <t>Description for ArrivalDate</t>
+  </si>
+  <si>
+    <t>Description for ID</t>
+  </si>
+  <si>
+    <t>Everedd</t>
+  </si>
+  <si>
+    <t>Bjerkmes</t>
+  </si>
+  <si>
+    <t>ContactReason</t>
+  </si>
+  <si>
+    <t>Description for ContactReason</t>
+  </si>
+  <si>
+    <t>Mischarge</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Description for Phone</t>
+  </si>
+  <si>
+    <t>Resolution</t>
+  </si>
+  <si>
+    <t>Description for Resolution</t>
+  </si>
+  <si>
+    <t>Created Return</t>
+  </si>
+  <si>
+    <t>ContactMethod</t>
+  </si>
+  <si>
+    <t>Description for ContactMethod</t>
   </si>
 </sst>
 </file>
@@ -1302,8 +1440,8 @@
   </sheetPr>
   <dimension ref="A1:M499"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H35" sqref="D35:H38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1387,7 +1525,7 @@
         <v>16</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="I2" s="10">
         <v>52343</v>
@@ -1399,10 +1537,10 @@
         <v>16</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
@@ -1416,10 +1554,10 @@
         <v>45</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>47</v>
+        <v>147</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>15</v>
@@ -1428,10 +1566,10 @@
         <v>16</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>16</v>
@@ -1440,10 +1578,10 @@
         <v>16</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
@@ -1457,10 +1595,10 @@
         <v>45</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>47</v>
+        <v>147</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
@@ -1469,10 +1607,10 @@
         <v>16</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>16</v>
@@ -1481,10 +1619,10 @@
         <v>16</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
@@ -1498,10 +1636,10 @@
         <v>45</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>15</v>
@@ -1510,10 +1648,10 @@
         <v>16</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="I5" s="11">
-        <v>97530</v>
+        <v>153</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>16</v>
@@ -1522,27 +1660,27 @@
         <v>16</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>153</v>
+        <v>43</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>15</v>
@@ -1551,39 +1689,39 @@
         <v>16</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="I6" s="10">
-        <v>405</v>
+        <v>154</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>153</v>
+        <v>43</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>15</v>
@@ -1592,10 +1730,10 @@
         <v>16</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="I7" s="11">
-        <v>45060</v>
+        <v>97530</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>16</v>
@@ -1604,24 +1742,24 @@
         <v>16</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>14</v>
@@ -1633,39 +1771,39 @@
         <v>16</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="I8" s="10">
-        <v>96628</v>
+        <v>405</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>59</v>
+        <v>157</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>15</v>
@@ -1674,39 +1812,39 @@
         <v>16</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I9" s="11">
-        <v>478752</v>
+        <v>12287871028610</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>15</v>
@@ -1715,36 +1853,36 @@
         <v>16</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="I10" s="10">
-        <v>90141</v>
+        <v>45060</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>14</v>
@@ -1756,133 +1894,133 @@
         <v>16</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="I11" s="11">
-        <v>99838</v>
+        <v>96628</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>179</v>
+        <v>94</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>179</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>66</v>
+        <v>160</v>
+      </c>
+      <c r="I12" s="10">
+        <v>478752</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="E13" s="4" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="I13" s="11">
-        <v>7</v>
+        <v>90141</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>179</v>
+        <v>94</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>179</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="I14" s="10">
-        <v>73</v>
+        <v>99838</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>16</v>
@@ -1891,39 +2029,39 @@
         <v>16</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>71</v>
+        <v>147</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>16</v>
@@ -1932,39 +2070,39 @@
         <v>16</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="I16" s="10">
-        <v>44136</v>
+        <v>167</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>16</v>
@@ -1973,150 +2111,150 @@
         <v>16</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="I17" s="11">
-        <v>8140</v>
+        <v>169</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>170</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="I18" s="10">
-        <v>99173</v>
+        <v>172</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="I19" s="11">
-        <v>50024</v>
+        <v>7</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>15</v>
@@ -2125,10 +2263,10 @@
         <v>16</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="I20" s="10">
-        <v>7</v>
+        <v>175</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>176</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>16</v>
@@ -2137,27 +2275,27 @@
         <v>16</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>82</v>
+        <v>177</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>16</v>
@@ -2166,10 +2304,10 @@
         <v>16</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>101</v>
+        <v>178</v>
+      </c>
+      <c r="I21" s="11">
+        <v>73</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>16</v>
@@ -2178,27 +2316,27 @@
         <v>16</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>15</v>
@@ -2207,10 +2345,10 @@
         <v>16</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="I22" s="10">
-        <v>44137.751863425925</v>
+        <v>179</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>16</v>
@@ -2219,27 +2357,27 @@
         <v>16</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>15</v>
@@ -2248,39 +2386,39 @@
         <v>16</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="I23" s="11">
-        <v>8140</v>
+        <v>44136</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>15</v>
@@ -2289,36 +2427,36 @@
         <v>16</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I24" s="10">
-        <v>6360</v>
+        <v>182</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>16</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>155</v>
+        <v>68</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>14</v>
@@ -2330,10 +2468,10 @@
         <v>16</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="I25" s="11">
-        <v>537348</v>
+        <v>8140</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>15</v>
@@ -2342,24 +2480,24 @@
         <v>16</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>155</v>
+        <v>68</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>14</v>
@@ -2371,10 +2509,10 @@
         <v>16</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="I26" s="10">
-        <v>23771</v>
+        <v>99173</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>16</v>
@@ -2383,80 +2521,80 @@
         <v>15</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>155</v>
+        <v>68</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>116</v>
+        <v>156</v>
+      </c>
+      <c r="I27" s="11">
+        <v>50024</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>179</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>155</v>
+        <v>68</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>55</v>
+        <v>177</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>143</v>
+        <v>186</v>
       </c>
       <c r="I28" s="10">
-        <v>44173</v>
+        <v>2.11</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>16</v>
@@ -2465,27 +2603,27 @@
         <v>16</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>156</v>
+        <v>68</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>15</v>
@@ -2494,51 +2632,51 @@
         <v>16</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="I29" s="11">
-        <v>1881</v>
+        <v>7</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>16</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>156</v>
+        <v>68</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>82</v>
+        <v>177</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>117</v>
+        <v>189</v>
+      </c>
+      <c r="I30" s="10">
+        <v>80.22</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>16</v>
@@ -2547,27 +2685,27 @@
         <v>16</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>156</v>
+        <v>68</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>15</v>
@@ -2576,10 +2714,10 @@
         <v>16</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="I31" s="11">
-        <v>29694</v>
+        <v>190</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>16</v>
@@ -2588,27 +2726,27 @@
         <v>16</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>156</v>
+        <v>68</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>15</v>
@@ -2617,10 +2755,10 @@
         <v>16</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>118</v>
+        <v>192</v>
+      </c>
+      <c r="I32" s="10">
+        <v>55808</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>16</v>
@@ -2629,27 +2767,27 @@
         <v>16</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>156</v>
+        <v>68</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>15</v>
@@ -2658,10 +2796,10 @@
         <v>16</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>119</v>
+        <v>193</v>
+      </c>
+      <c r="I33" s="11">
+        <v>44137.751863425925</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>16</v>
@@ -2670,27 +2808,27 @@
         <v>16</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>156</v>
+        <v>68</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>67</v>
+        <v>194</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>15</v>
@@ -2699,10 +2837,10 @@
         <v>16</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="I34" s="10">
-        <v>2</v>
+        <v>195</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>196</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>16</v>
@@ -2711,27 +2849,27 @@
         <v>16</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>15</v>
@@ -2740,118 +2878,118 @@
         <v>16</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>120</v>
+        <v>183</v>
+      </c>
+      <c r="I35" s="11">
+        <v>8140</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>179</v>
+        <v>114</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>179</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>121</v>
+        <v>160</v>
+      </c>
+      <c r="I36" s="10">
+        <v>6360</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>16</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>179</v>
+        <v>115</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>179</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>113</v>
+        <v>197</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="I37" s="11">
-        <v>442430</v>
+        <v>73</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>16</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>14</v>
@@ -2863,424 +3001,1048 @@
         <v>16</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>122</v>
+        <v>199</v>
       </c>
       <c r="I38" s="10">
-        <v>58868</v>
+        <v>537348</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>16</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="I39" s="11">
+        <v>23771</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="I42" s="10">
+        <v>44173</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="I43" s="11">
+        <v>1881</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="I45" s="11">
+        <v>29694</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I49" s="11">
+        <v>2</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="I50" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="14" t="s">
+      <c r="J50" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I53" s="11">
+        <v>44131</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="I54" s="10">
+        <v>442430</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="I55" s="11">
+        <v>58868</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-    </row>
-    <row r="42" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-    </row>
-    <row r="44" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-    </row>
-    <row r="46" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-    </row>
-    <row r="48" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-    </row>
-    <row r="50" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-    </row>
-    <row r="52" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-    </row>
-    <row r="54" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-    </row>
-    <row r="56" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-    </row>
-    <row r="58" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
+      <c r="E59" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="60" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
+      <c r="A60" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="61" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
+      <c r="A61" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="I61" s="11">
+        <v>17358</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="62" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
+      <c r="A62" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="63" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
+      <c r="A63" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="I63" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="64" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A64" s="3"/>
@@ -9835,7 +10597,7 @@
   </sheetPr>
   <dimension ref="A1:F499"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -9873,159 +10635,159 @@
         <v>45</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14016,31 +14778,31 @@
         <v>15</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="9" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -14048,31 +14810,31 @@
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="9" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -14080,31 +14842,31 @@
         <v>15</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="9" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -14112,25 +14874,25 @@
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="9" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
